--- a/data/routines.xlsx
+++ b/data/routines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/929cf312e2b780ae/Maestría/Gym/streamlit-gym-tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{10AE4119-D344-4149-858E-2D0DBC1C48AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12952CB1-1BBF-40CE-BAFD-0F8F7F858CB0}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{10AE4119-D344-4149-858E-2D0DBC1C48AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90864754-760B-4C86-8A90-669489F979C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DEF69F90-67EF-4C1E-BC2A-16B56894056E}"/>
   </bookViews>
@@ -1717,7 +1717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8B4A00-BFF3-4075-BF09-80908C799E7C}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1914,7 +1916,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1940,7 +1942,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1966,7 +1968,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1992,7 +1994,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>

--- a/data/routines.xlsx
+++ b/data/routines.xlsx
@@ -293,10 +293,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1718,7 +1714,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/routines.xlsx
+++ b/data/routines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/929cf312e2b780ae/Maestría/Gym/streamlit-gym-tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{10AE4119-D344-4149-858E-2D0DBC1C48AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90864754-760B-4C86-8A90-669489F979C7}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{10AE4119-D344-4149-858E-2D0DBC1C48AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBE5A78D-421B-4BFF-8D22-85E3683C6927}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DEF69F90-67EF-4C1E-BC2A-16B56894056E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEF69F90-67EF-4C1E-BC2A-16B56894056E}"/>
   </bookViews>
   <sheets>
     <sheet name="Rutina1" sheetId="2" r:id="rId1"/>
@@ -247,8 +247,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -276,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,7 +661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49868234-39C0-4B15-BC17-7692A9A20A06}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -844,7 +859,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -870,7 +885,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -896,7 +911,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -922,7 +937,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -930,7 +945,7 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11">
@@ -1713,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8B4A00-BFF3-4075-BF09-80908C799E7C}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
